--- a/BDH_PROYECTOS_2023_2032.xlsx
+++ b/BDH_PROYECTOS_2023_2032.xlsx
@@ -9230,7 +9230,7 @@
   <dimension ref="A1:U1389"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD1389"/>
+      <selection activeCell="M1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
